--- a/config_debug/xiaoxiaole_sh_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_sh_defen_cfg.xlsx
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -532,7 +532,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>30000</v>
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -557,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -571,10 +574,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -585,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>480000</v>
+        <v>960000</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -599,10 +602,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>960000</v>
+        <v>1920000</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>1920000</v>
+        <v>5120000</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,10 +630,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>5120000</v>
+        <v>10240000</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,25 +644,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>10240000</v>
+        <v>20480000</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20480000</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -732,12 +726,7 @@
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/xiaoxiaole_sh_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_sh_defen_cfg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -468,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -869,10 +869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -917,10 +917,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D3" s="2">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -932,10 +932,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D4" s="2">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -947,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>120000</v>
-      </c>
-      <c r="D5" s="2">
         <v>240000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>480000</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -961,11 +961,11 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>240000</v>
+      <c r="C6" s="6">
+        <v>480000</v>
       </c>
       <c r="D6" s="6">
-        <v>480000</v>
+        <v>900000</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -977,10 +977,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>480000</v>
+        <v>900000</v>
       </c>
       <c r="D7" s="6">
-        <v>900000</v>
+        <v>1800000</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -992,10 +992,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>900000</v>
+        <v>1800000</v>
       </c>
       <c r="D8" s="6">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1007,10 +1007,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="6">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="D9" s="6">
-        <v>3600000</v>
+        <v>7200000</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1022,10 +1022,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>3600000</v>
+        <v>7200000</v>
       </c>
       <c r="D10" s="6">
-        <v>7200000</v>
+        <v>14400000</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1037,10 +1037,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="6">
-        <v>7200000</v>
-      </c>
-      <c r="D11" s="6">
         <v>14400000</v>
+      </c>
+      <c r="D11">
+        <v>28800000</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1051,11 +1051,11 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
-        <v>14400000</v>
+      <c r="C12">
+        <v>28800000</v>
       </c>
       <c r="D12">
-        <v>28800000</v>
+        <v>57600000</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1067,24 +1067,9 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>28800000</v>
-      </c>
-      <c r="D13">
         <v>57600000</v>
       </c>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>57600000</v>
-      </c>
-      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_debug/xiaoxiaole_sh_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_sh_defen_cfg.xlsx
@@ -872,10 +872,14 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -905,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -917,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>60000</v>
+        <v>600000</v>
       </c>
       <c r="D3" s="2">
-        <v>120000</v>
+        <v>600000</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -932,10 +936,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>120000</v>
+        <v>1800000</v>
       </c>
       <c r="D4" s="2">
-        <v>240000</v>
+        <v>1800000</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -947,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>240000</v>
-      </c>
-      <c r="D5" s="6">
-        <v>480000</v>
+        <v>3600000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3600000</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -962,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>480000</v>
-      </c>
-      <c r="D6" s="6">
-        <v>900000</v>
+        <v>7200000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7200000</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -977,10 +981,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>900000</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1800000</v>
+        <v>14400000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>14400000</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -992,10 +996,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3600000</v>
+        <v>28800000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>28800000</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1007,10 +1011,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="6">
-        <v>3600000</v>
-      </c>
-      <c r="D9" s="6">
-        <v>7200000</v>
+        <v>57600000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>57600000</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1022,10 +1026,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>7200000</v>
-      </c>
-      <c r="D10" s="6">
-        <v>14400000</v>
+        <v>115200000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>115200000</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1037,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="6">
-        <v>14400000</v>
-      </c>
-      <c r="D11">
-        <v>28800000</v>
+        <v>307200000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>307200000</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1051,11 +1055,11 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>28800000</v>
-      </c>
-      <c r="D12">
-        <v>57600000</v>
+      <c r="C12" s="1">
+        <v>614400000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>614400000</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1066,9 +1070,10 @@
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>57600000</v>
-      </c>
+      <c r="C13" s="1">
+        <v>1228800000</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="2"/>
     </row>
   </sheetData>

--- a/config_debug/xiaoxiaole_sh_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_sh_defen_cfg.xlsx
@@ -872,7 +872,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -921,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="D3" s="2">
         <v>600000</v>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>1800000</v>
+        <v>600000</v>
       </c>
       <c r="D4" s="2">
         <v>1800000</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>3600000</v>
+        <v>1800000</v>
       </c>
       <c r="D5" s="2">
         <v>3600000</v>
@@ -965,8 +965,8 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
-        <v>7200000</v>
+      <c r="C6" s="2">
+        <v>3600000</v>
       </c>
       <c r="D6" s="2">
         <v>7200000</v>
@@ -980,8 +980,8 @@
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
-        <v>14400000</v>
+      <c r="C7" s="2">
+        <v>7200000</v>
       </c>
       <c r="D7" s="2">
         <v>14400000</v>
@@ -995,8 +995,8 @@
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
-        <v>28800000</v>
+      <c r="C8" s="2">
+        <v>14400000</v>
       </c>
       <c r="D8" s="2">
         <v>28800000</v>
@@ -1010,8 +1010,8 @@
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
-        <v>57600000</v>
+      <c r="C9" s="2">
+        <v>28800000</v>
       </c>
       <c r="D9" s="2">
         <v>57600000</v>
@@ -1025,8 +1025,8 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
-        <v>115200000</v>
+      <c r="C10" s="2">
+        <v>57600000</v>
       </c>
       <c r="D10" s="2">
         <v>115200000</v>
@@ -1040,8 +1040,8 @@
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
-        <v>307200000</v>
+      <c r="C11" s="2">
+        <v>115200000</v>
       </c>
       <c r="D11" s="2">
         <v>307200000</v>
@@ -1055,8 +1055,8 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>614400000</v>
+      <c r="C12" s="2">
+        <v>307200000</v>
       </c>
       <c r="D12" s="2">
         <v>614400000</v>
@@ -1070,8 +1070,8 @@
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
-        <v>1228800000</v>
+      <c r="C13" s="2">
+        <v>614400000</v>
       </c>
       <c r="D13" s="2"/>
       <c r="G13" s="2"/>
